--- a/Análisis/Cronograma.xlsx
+++ b/Análisis/Cronograma.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A3AAD-D06D-4A28-8DB8-D7A14BEDAC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA184E-12E9-4734-B5B7-D762ED789248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -1353,9 +1353,6 @@
     <xf numFmtId="0" fontId="7" fillId="45" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,9 +1376,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="46" borderId="17" xfId="12" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="17" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="46" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1493,6 +1487,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="172" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6198,77 +6198,77 @@
       <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:9" s="22" customFormat="1" ht="26.05" x14ac:dyDescent="0.5">
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="108" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="108" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="C6" s="111"/>
+      <c r="A6" s="107"/>
+      <c r="C6" s="109"/>
     </row>
     <row r="7" spans="1:9" s="19" customFormat="1" ht="24.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="I7" s="114" t="s">
+      <c r="C7" s="110"/>
+      <c r="I7" s="112" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1" ht="26.05" x14ac:dyDescent="0.5">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="I8" s="110" t="s">
+      <c r="C8" s="111"/>
+      <c r="I8" s="108" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.85" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="C9" s="110" t="s">
+      <c r="A9" s="110"/>
+      <c r="C9" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="108" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="19" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="I10" s="110" t="s">
+      <c r="C10" s="110"/>
+      <c r="I10" s="108" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" ht="26.05" x14ac:dyDescent="0.5">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="108" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="I12" s="111"/>
+      <c r="A12" s="110"/>
+      <c r="I12" s="109"/>
     </row>
     <row r="13" spans="1:9" s="19" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="112"/>
+      <c r="I13" s="110"/>
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="26.05" x14ac:dyDescent="0.5">
-      <c r="I14" s="114" t="s">
+      <c r="I14" s="112" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="108" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6292,8 +6292,8 @@
   <dimension ref="A1:EY41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="29.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6393,247 +6393,247 @@
         <v>2</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="121">
+      <c r="D3" s="117"/>
+      <c r="E3" s="119">
         <v>43892</v>
       </c>
-      <c r="F3" s="121"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="1:155" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="119"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="115">
+      <c r="I4" s="113">
         <f>I5</f>
         <v>43892</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="115">
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="113">
         <f>P5</f>
         <v>43899</v>
       </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="115">
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="113">
         <f>W5</f>
         <v>43906</v>
       </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="115">
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="113">
         <f>AD5</f>
         <v>43913</v>
       </c>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="115">
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="113">
         <f>AK5</f>
         <v>43920</v>
       </c>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="115">
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="113">
         <f>AR5</f>
         <v>43927</v>
       </c>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="117"/>
-      <c r="AY4" s="115">
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
+      <c r="AX4" s="115"/>
+      <c r="AY4" s="113">
         <f>AY5</f>
         <v>43934</v>
       </c>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="117"/>
-      <c r="BF4" s="115">
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="114"/>
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="114"/>
+      <c r="BE4" s="115"/>
+      <c r="BF4" s="113">
         <f>BF5</f>
         <v>43941</v>
       </c>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="117"/>
-      <c r="BM4" s="115">
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
+      <c r="BJ4" s="114"/>
+      <c r="BK4" s="114"/>
+      <c r="BL4" s="115"/>
+      <c r="BM4" s="113">
         <f>BM5</f>
         <v>43948</v>
       </c>
-      <c r="BN4" s="116"/>
-      <c r="BO4" s="116"/>
-      <c r="BP4" s="116"/>
-      <c r="BQ4" s="116"/>
-      <c r="BR4" s="116"/>
-      <c r="BS4" s="117"/>
-      <c r="BT4" s="115">
+      <c r="BN4" s="114"/>
+      <c r="BO4" s="114"/>
+      <c r="BP4" s="114"/>
+      <c r="BQ4" s="114"/>
+      <c r="BR4" s="114"/>
+      <c r="BS4" s="115"/>
+      <c r="BT4" s="113">
         <f>BT5</f>
         <v>43955</v>
       </c>
-      <c r="BU4" s="116"/>
-      <c r="BV4" s="116"/>
-      <c r="BW4" s="116"/>
-      <c r="BX4" s="116"/>
-      <c r="BY4" s="116"/>
-      <c r="BZ4" s="117"/>
-      <c r="CA4" s="115">
+      <c r="BU4" s="114"/>
+      <c r="BV4" s="114"/>
+      <c r="BW4" s="114"/>
+      <c r="BX4" s="114"/>
+      <c r="BY4" s="114"/>
+      <c r="BZ4" s="115"/>
+      <c r="CA4" s="113">
         <f>CA5</f>
         <v>43962</v>
       </c>
-      <c r="CB4" s="116"/>
-      <c r="CC4" s="116"/>
-      <c r="CD4" s="116"/>
-      <c r="CE4" s="116"/>
-      <c r="CF4" s="116"/>
-      <c r="CG4" s="117"/>
-      <c r="CH4" s="115">
+      <c r="CB4" s="114"/>
+      <c r="CC4" s="114"/>
+      <c r="CD4" s="114"/>
+      <c r="CE4" s="114"/>
+      <c r="CF4" s="114"/>
+      <c r="CG4" s="115"/>
+      <c r="CH4" s="113">
         <f>CH5</f>
         <v>43969</v>
       </c>
-      <c r="CI4" s="116"/>
-      <c r="CJ4" s="116"/>
-      <c r="CK4" s="116"/>
-      <c r="CL4" s="116"/>
-      <c r="CM4" s="116"/>
-      <c r="CN4" s="117"/>
-      <c r="CO4" s="115">
+      <c r="CI4" s="114"/>
+      <c r="CJ4" s="114"/>
+      <c r="CK4" s="114"/>
+      <c r="CL4" s="114"/>
+      <c r="CM4" s="114"/>
+      <c r="CN4" s="115"/>
+      <c r="CO4" s="113">
         <f>CO5</f>
         <v>43976</v>
       </c>
-      <c r="CP4" s="116"/>
-      <c r="CQ4" s="116"/>
-      <c r="CR4" s="116"/>
-      <c r="CS4" s="116"/>
-      <c r="CT4" s="116"/>
-      <c r="CU4" s="117"/>
-      <c r="CV4" s="115">
+      <c r="CP4" s="114"/>
+      <c r="CQ4" s="114"/>
+      <c r="CR4" s="114"/>
+      <c r="CS4" s="114"/>
+      <c r="CT4" s="114"/>
+      <c r="CU4" s="115"/>
+      <c r="CV4" s="113">
         <f>CV5</f>
         <v>43983</v>
       </c>
-      <c r="CW4" s="116"/>
-      <c r="CX4" s="116"/>
-      <c r="CY4" s="116"/>
-      <c r="CZ4" s="116"/>
-      <c r="DA4" s="116"/>
-      <c r="DB4" s="117"/>
-      <c r="DC4" s="115">
+      <c r="CW4" s="114"/>
+      <c r="CX4" s="114"/>
+      <c r="CY4" s="114"/>
+      <c r="CZ4" s="114"/>
+      <c r="DA4" s="114"/>
+      <c r="DB4" s="115"/>
+      <c r="DC4" s="113">
         <f>DC5</f>
         <v>43990</v>
       </c>
-      <c r="DD4" s="116"/>
-      <c r="DE4" s="116"/>
-      <c r="DF4" s="116"/>
-      <c r="DG4" s="116"/>
-      <c r="DH4" s="116"/>
-      <c r="DI4" s="117"/>
-      <c r="DJ4" s="115">
+      <c r="DD4" s="114"/>
+      <c r="DE4" s="114"/>
+      <c r="DF4" s="114"/>
+      <c r="DG4" s="114"/>
+      <c r="DH4" s="114"/>
+      <c r="DI4" s="115"/>
+      <c r="DJ4" s="113">
         <f>DJ5</f>
         <v>43997</v>
       </c>
-      <c r="DK4" s="116"/>
-      <c r="DL4" s="116"/>
-      <c r="DM4" s="116"/>
-      <c r="DN4" s="116"/>
-      <c r="DO4" s="116"/>
-      <c r="DP4" s="117"/>
-      <c r="DQ4" s="115">
+      <c r="DK4" s="114"/>
+      <c r="DL4" s="114"/>
+      <c r="DM4" s="114"/>
+      <c r="DN4" s="114"/>
+      <c r="DO4" s="114"/>
+      <c r="DP4" s="115"/>
+      <c r="DQ4" s="113">
         <f>DQ5</f>
         <v>44004</v>
       </c>
-      <c r="DR4" s="116"/>
-      <c r="DS4" s="116"/>
-      <c r="DT4" s="116"/>
-      <c r="DU4" s="116"/>
-      <c r="DV4" s="116"/>
-      <c r="DW4" s="117"/>
-      <c r="DX4" s="115">
+      <c r="DR4" s="114"/>
+      <c r="DS4" s="114"/>
+      <c r="DT4" s="114"/>
+      <c r="DU4" s="114"/>
+      <c r="DV4" s="114"/>
+      <c r="DW4" s="115"/>
+      <c r="DX4" s="113">
         <f>DX5</f>
         <v>44011</v>
       </c>
-      <c r="DY4" s="116"/>
-      <c r="DZ4" s="116"/>
-      <c r="EA4" s="116"/>
-      <c r="EB4" s="116"/>
-      <c r="EC4" s="116"/>
-      <c r="ED4" s="117"/>
-      <c r="EE4" s="115">
+      <c r="DY4" s="114"/>
+      <c r="DZ4" s="114"/>
+      <c r="EA4" s="114"/>
+      <c r="EB4" s="114"/>
+      <c r="EC4" s="114"/>
+      <c r="ED4" s="115"/>
+      <c r="EE4" s="113">
         <f>EE5</f>
         <v>44018</v>
       </c>
-      <c r="EF4" s="116"/>
-      <c r="EG4" s="116"/>
-      <c r="EH4" s="116"/>
-      <c r="EI4" s="116"/>
-      <c r="EJ4" s="116"/>
-      <c r="EK4" s="117"/>
-      <c r="EL4" s="115">
+      <c r="EF4" s="114"/>
+      <c r="EG4" s="114"/>
+      <c r="EH4" s="114"/>
+      <c r="EI4" s="114"/>
+      <c r="EJ4" s="114"/>
+      <c r="EK4" s="115"/>
+      <c r="EL4" s="113">
         <f>EL5</f>
         <v>44025</v>
       </c>
-      <c r="EM4" s="116"/>
-      <c r="EN4" s="116"/>
-      <c r="EO4" s="116"/>
-      <c r="EP4" s="116"/>
-      <c r="EQ4" s="116"/>
-      <c r="ER4" s="117"/>
-      <c r="ES4" s="115">
+      <c r="EM4" s="114"/>
+      <c r="EN4" s="114"/>
+      <c r="EO4" s="114"/>
+      <c r="EP4" s="114"/>
+      <c r="EQ4" s="114"/>
+      <c r="ER4" s="115"/>
+      <c r="ES4" s="113">
         <f>ES5</f>
         <v>44032</v>
       </c>
-      <c r="ET4" s="116"/>
-      <c r="EU4" s="116"/>
-      <c r="EV4" s="116"/>
-      <c r="EW4" s="116"/>
-      <c r="EX4" s="116"/>
-      <c r="EY4" s="117"/>
+      <c r="ET4" s="114"/>
+      <c r="EU4" s="114"/>
+      <c r="EV4" s="114"/>
+      <c r="EW4" s="114"/>
+      <c r="EX4" s="114"/>
+      <c r="EY4" s="115"/>
     </row>
     <row r="5" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
       <c r="I5" s="43">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43892</v>
@@ -7998,7 +7998,7 @@
       <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="100"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="46"/>
       <c r="E8" s="54"/>
       <c r="F8" s="55"/>
@@ -8162,7 +8162,7 @@
       <c r="B9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="99" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="47"/>
@@ -8496,7 +8496,7 @@
       <c r="B11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="100" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="49"/>
@@ -8666,7 +8666,7 @@
       <c r="B12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="100" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="49"/>
@@ -8998,7 +8998,7 @@
       <c r="B14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="101" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="51"/>
@@ -9166,7 +9166,7 @@
       <c r="B15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="101" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="51"/>
@@ -9334,7 +9334,7 @@
       <c r="B16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="101" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="51"/>
@@ -9502,7 +9502,7 @@
       <c r="B17" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="101" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="51"/>
@@ -9670,7 +9670,7 @@
       <c r="B18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="101" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="51"/>
@@ -10002,7 +10002,7 @@
       <c r="B20" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="102" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="53"/>
@@ -10170,7 +10170,7 @@
       <c r="B21" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="102" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="53"/>
@@ -10338,7 +10338,7 @@
       <c r="B22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="102" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="53"/>
@@ -10506,7 +10506,7 @@
       <c r="B23" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="102" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="53"/>
@@ -10674,7 +10674,7 @@
       <c r="B24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="102" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="53"/>
@@ -10843,7 +10843,7 @@
       <c r="B25" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="102" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="53"/>
@@ -11175,12 +11175,14 @@
       <c r="B27" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74">
+      <c r="C27" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73">
         <v>44035</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="73">
         <v>44036</v>
       </c>
       <c r="G27" s="11"/>
@@ -11341,12 +11343,14 @@
       <c r="B28" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74">
+      <c r="C28" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73">
         <v>44035</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="73">
         <v>44036</v>
       </c>
       <c r="G28" s="11"/>
@@ -11507,12 +11511,14 @@
       <c r="B29" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74">
+      <c r="C29" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73">
         <v>44035</v>
       </c>
-      <c r="F29" s="74">
+      <c r="F29" s="73">
         <v>44036</v>
       </c>
       <c r="G29" s="11"/>
@@ -11673,12 +11679,14 @@
       <c r="B30" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74">
+      <c r="C30" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73">
         <v>44035</v>
       </c>
-      <c r="F30" s="74">
+      <c r="F30" s="73">
         <v>44036</v>
       </c>
       <c r="G30" s="11"/>
@@ -11839,12 +11847,14 @@
       <c r="B31" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74">
+      <c r="C31" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73">
         <v>44035</v>
       </c>
-      <c r="F31" s="74">
+      <c r="F31" s="73">
         <v>44036</v>
       </c>
       <c r="G31" s="11"/>
@@ -12004,13 +12014,13 @@
       <c r="A32" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="str">
         <f t="shared" si="75"/>
@@ -12164,952 +12174,949 @@
       <c r="EX32" s="16"/>
       <c r="EY32" s="16"/>
     </row>
-    <row r="33" spans="1:155" s="3" customFormat="1" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:155" s="3" customFormat="1" ht="29.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83">
+      <c r="C33" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81">
         <v>44036</v>
       </c>
-      <c r="F33" s="83">
+      <c r="F33" s="81">
         <v>44036</v>
       </c>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105">
+      <c r="G33" s="103"/>
+      <c r="H33" s="103">
         <f t="shared" si="75"/>
         <v>1</v>
       </c>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="106"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="106"/>
-      <c r="AF33" s="106"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="106"/>
-      <c r="AJ33" s="106"/>
-      <c r="AK33" s="106"/>
-      <c r="AL33" s="106"/>
-      <c r="AM33" s="106"/>
-      <c r="AN33" s="106"/>
-      <c r="AO33" s="106"/>
-      <c r="AP33" s="106"/>
-      <c r="AQ33" s="106"/>
-      <c r="AR33" s="106"/>
-      <c r="AS33" s="106"/>
-      <c r="AT33" s="106"/>
-      <c r="AU33" s="106"/>
-      <c r="AV33" s="106"/>
-      <c r="AW33" s="106"/>
-      <c r="AX33" s="106"/>
-      <c r="AY33" s="106"/>
-      <c r="AZ33" s="106"/>
-      <c r="BA33" s="106"/>
-      <c r="BB33" s="106"/>
-      <c r="BC33" s="106"/>
-      <c r="BD33" s="106"/>
-      <c r="BE33" s="106"/>
-      <c r="BF33" s="106"/>
-      <c r="BG33" s="106"/>
-      <c r="BH33" s="106"/>
-      <c r="BI33" s="106"/>
-      <c r="BJ33" s="106"/>
-      <c r="BK33" s="106"/>
-      <c r="BL33" s="106"/>
-      <c r="BM33" s="106"/>
-      <c r="BN33" s="106"/>
-      <c r="BO33" s="106"/>
-      <c r="BP33" s="106"/>
-      <c r="BQ33" s="106"/>
-      <c r="BR33" s="106"/>
-      <c r="BS33" s="106"/>
-      <c r="BT33" s="106"/>
-      <c r="BU33" s="106"/>
-      <c r="BV33" s="106"/>
-      <c r="BW33" s="106"/>
-      <c r="BX33" s="106"/>
-      <c r="BY33" s="106"/>
-      <c r="BZ33" s="106"/>
-      <c r="CA33" s="106"/>
-      <c r="CB33" s="106"/>
-      <c r="CC33" s="106"/>
-      <c r="CD33" s="106"/>
-      <c r="CE33" s="106"/>
-      <c r="CF33" s="106"/>
-      <c r="CG33" s="106"/>
-      <c r="CH33" s="106"/>
-      <c r="CI33" s="106"/>
-      <c r="CJ33" s="106"/>
-      <c r="CK33" s="106"/>
-      <c r="CL33" s="106"/>
-      <c r="CM33" s="106"/>
-      <c r="CN33" s="106"/>
-      <c r="CO33" s="106"/>
-      <c r="CP33" s="106"/>
-      <c r="CQ33" s="106"/>
-      <c r="CR33" s="106"/>
-      <c r="CS33" s="106"/>
-      <c r="CT33" s="106"/>
-      <c r="CU33" s="106"/>
-      <c r="CV33" s="106"/>
-      <c r="CW33" s="106"/>
-      <c r="CX33" s="106"/>
-      <c r="CY33" s="106"/>
-      <c r="CZ33" s="106"/>
-      <c r="DA33" s="106"/>
-      <c r="DB33" s="106"/>
-      <c r="DC33" s="106"/>
-      <c r="DD33" s="106"/>
-      <c r="DE33" s="106"/>
-      <c r="DF33" s="106"/>
-      <c r="DG33" s="106"/>
-      <c r="DH33" s="106"/>
-      <c r="DI33" s="106"/>
-      <c r="DJ33" s="106"/>
-      <c r="DK33" s="106"/>
-      <c r="DL33" s="106"/>
-      <c r="DM33" s="106"/>
-      <c r="DN33" s="106"/>
-      <c r="DO33" s="106"/>
-      <c r="DP33" s="106"/>
-      <c r="DQ33" s="106"/>
-      <c r="DR33" s="106"/>
-      <c r="DS33" s="106"/>
-      <c r="DT33" s="106"/>
-      <c r="DU33" s="106"/>
-      <c r="DV33" s="106"/>
-      <c r="DW33" s="106"/>
-      <c r="DX33" s="106"/>
-      <c r="DY33" s="106"/>
-      <c r="DZ33" s="106"/>
-      <c r="EA33" s="106"/>
-      <c r="EB33" s="106"/>
-      <c r="EC33" s="106"/>
-      <c r="ED33" s="106"/>
-      <c r="EE33" s="106"/>
-      <c r="EF33" s="106"/>
-      <c r="EG33" s="106"/>
-      <c r="EH33" s="106"/>
-      <c r="EI33" s="106"/>
-      <c r="EJ33" s="106"/>
-      <c r="EK33" s="106"/>
-      <c r="EL33" s="106"/>
-      <c r="EM33" s="106"/>
-      <c r="EN33" s="106"/>
-      <c r="EO33" s="106"/>
-      <c r="EP33" s="106"/>
-      <c r="EQ33" s="106"/>
-      <c r="ER33" s="106"/>
-      <c r="ES33" s="106"/>
-      <c r="ET33" s="106"/>
-      <c r="EU33" s="106"/>
-      <c r="EV33" s="106"/>
-      <c r="EW33" s="106"/>
-      <c r="EX33" s="106"/>
-      <c r="EY33" s="106"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="104"/>
+      <c r="AF33" s="104"/>
+      <c r="AG33" s="104"/>
+      <c r="AH33" s="104"/>
+      <c r="AI33" s="104"/>
+      <c r="AJ33" s="104"/>
+      <c r="AK33" s="104"/>
+      <c r="AL33" s="104"/>
+      <c r="AM33" s="104"/>
+      <c r="AN33" s="104"/>
+      <c r="AO33" s="104"/>
+      <c r="AP33" s="104"/>
+      <c r="AQ33" s="104"/>
+      <c r="AR33" s="104"/>
+      <c r="AS33" s="104"/>
+      <c r="AT33" s="104"/>
+      <c r="AU33" s="104"/>
+      <c r="AV33" s="104"/>
+      <c r="AW33" s="104"/>
+      <c r="AX33" s="104"/>
+      <c r="AY33" s="104"/>
+      <c r="AZ33" s="104"/>
+      <c r="BA33" s="104"/>
+      <c r="BB33" s="104"/>
+      <c r="BC33" s="104"/>
+      <c r="BD33" s="104"/>
+      <c r="BE33" s="104"/>
+      <c r="BF33" s="104"/>
+      <c r="BG33" s="104"/>
+      <c r="BH33" s="104"/>
+      <c r="BI33" s="104"/>
+      <c r="BJ33" s="104"/>
+      <c r="BK33" s="104"/>
+      <c r="BL33" s="104"/>
+      <c r="BM33" s="104"/>
+      <c r="BN33" s="104"/>
+      <c r="BO33" s="104"/>
+      <c r="BP33" s="104"/>
+      <c r="BQ33" s="104"/>
+      <c r="BR33" s="104"/>
+      <c r="BS33" s="104"/>
+      <c r="BT33" s="104"/>
+      <c r="BU33" s="104"/>
+      <c r="BV33" s="104"/>
+      <c r="BW33" s="104"/>
+      <c r="BX33" s="104"/>
+      <c r="BY33" s="104"/>
+      <c r="BZ33" s="104"/>
+      <c r="CA33" s="104"/>
+      <c r="CB33" s="104"/>
+      <c r="CC33" s="104"/>
+      <c r="CD33" s="104"/>
+      <c r="CE33" s="104"/>
+      <c r="CF33" s="104"/>
+      <c r="CG33" s="104"/>
+      <c r="CH33" s="104"/>
+      <c r="CI33" s="104"/>
+      <c r="CJ33" s="104"/>
+      <c r="CK33" s="104"/>
+      <c r="CL33" s="104"/>
+      <c r="CM33" s="104"/>
+      <c r="CN33" s="104"/>
+      <c r="CO33" s="104"/>
+      <c r="CP33" s="104"/>
+      <c r="CQ33" s="104"/>
+      <c r="CR33" s="104"/>
+      <c r="CS33" s="104"/>
+      <c r="CT33" s="104"/>
+      <c r="CU33" s="104"/>
+      <c r="CV33" s="104"/>
+      <c r="CW33" s="104"/>
+      <c r="CX33" s="104"/>
+      <c r="CY33" s="104"/>
+      <c r="CZ33" s="104"/>
+      <c r="DA33" s="104"/>
+      <c r="DB33" s="104"/>
+      <c r="DC33" s="104"/>
+      <c r="DD33" s="104"/>
+      <c r="DE33" s="104"/>
+      <c r="DF33" s="104"/>
+      <c r="DG33" s="104"/>
+      <c r="DH33" s="104"/>
+      <c r="DI33" s="104"/>
+      <c r="DJ33" s="104"/>
+      <c r="DK33" s="104"/>
+      <c r="DL33" s="104"/>
+      <c r="DM33" s="104"/>
+      <c r="DN33" s="104"/>
+      <c r="DO33" s="104"/>
+      <c r="DP33" s="104"/>
+      <c r="DQ33" s="104"/>
+      <c r="DR33" s="104"/>
+      <c r="DS33" s="104"/>
+      <c r="DT33" s="104"/>
+      <c r="DU33" s="104"/>
+      <c r="DV33" s="104"/>
+      <c r="DW33" s="104"/>
+      <c r="DX33" s="104"/>
+      <c r="DY33" s="104"/>
+      <c r="DZ33" s="104"/>
+      <c r="EA33" s="104"/>
+      <c r="EB33" s="104"/>
+      <c r="EC33" s="104"/>
+      <c r="ED33" s="104"/>
+      <c r="EE33" s="104"/>
+      <c r="EF33" s="104"/>
+      <c r="EG33" s="104"/>
+      <c r="EH33" s="104"/>
+      <c r="EI33" s="104"/>
+      <c r="EJ33" s="104"/>
+      <c r="EK33" s="104"/>
+      <c r="EL33" s="104"/>
+      <c r="EM33" s="104"/>
+      <c r="EN33" s="104"/>
+      <c r="EO33" s="104"/>
+      <c r="EP33" s="104"/>
+      <c r="EQ33" s="104"/>
+      <c r="ER33" s="104"/>
+      <c r="ES33" s="104"/>
+      <c r="ET33" s="104"/>
+      <c r="EU33" s="104"/>
+      <c r="EV33" s="104"/>
+      <c r="EW33" s="104"/>
+      <c r="EX33" s="104"/>
+      <c r="EY33" s="104"/>
     </row>
     <row r="34" spans="1:155" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="89"/>
-      <c r="AC34" s="89"/>
-      <c r="AD34" s="89"/>
-      <c r="AE34" s="89"/>
-      <c r="AF34" s="89"/>
-      <c r="AG34" s="89"/>
-      <c r="AH34" s="89"/>
-      <c r="AI34" s="89"/>
-      <c r="AJ34" s="89"/>
-      <c r="AK34" s="89"/>
-      <c r="AL34" s="89"/>
-      <c r="AM34" s="89"/>
-      <c r="AN34" s="89"/>
-      <c r="AO34" s="89"/>
-      <c r="AP34" s="89"/>
-      <c r="AQ34" s="89"/>
-      <c r="AR34" s="89"/>
-      <c r="AS34" s="89"/>
-      <c r="AT34" s="89"/>
-      <c r="AU34" s="89"/>
-      <c r="AV34" s="89"/>
-      <c r="AW34" s="89"/>
-      <c r="AX34" s="89"/>
-      <c r="AY34" s="89"/>
-      <c r="AZ34" s="89"/>
-      <c r="BA34" s="89"/>
-      <c r="BB34" s="89"/>
-      <c r="BC34" s="89"/>
-      <c r="BD34" s="89"/>
-      <c r="BE34" s="89"/>
-      <c r="BF34" s="89"/>
-      <c r="BG34" s="89"/>
-      <c r="BH34" s="89"/>
-      <c r="BI34" s="89"/>
-      <c r="BJ34" s="89"/>
-      <c r="BK34" s="89"/>
-      <c r="BL34" s="89"/>
-      <c r="BM34" s="89"/>
-      <c r="BN34" s="89"/>
-      <c r="BO34" s="89"/>
-      <c r="BP34" s="89"/>
-      <c r="BQ34" s="89"/>
-      <c r="BR34" s="89"/>
-      <c r="BS34" s="89"/>
-      <c r="BT34" s="89"/>
-      <c r="BU34" s="89"/>
-      <c r="BV34" s="89"/>
-      <c r="BW34" s="89"/>
-      <c r="BX34" s="89"/>
-      <c r="BY34" s="89"/>
-      <c r="BZ34" s="89"/>
-      <c r="CA34" s="89"/>
-      <c r="CB34" s="89"/>
-      <c r="CC34" s="89"/>
-      <c r="CD34" s="89"/>
-      <c r="CE34" s="89"/>
-      <c r="CF34" s="89"/>
-      <c r="CG34" s="89"/>
-      <c r="CH34" s="89"/>
-      <c r="CI34" s="89"/>
-      <c r="CJ34" s="89"/>
-      <c r="CK34" s="89"/>
-      <c r="CL34" s="89"/>
-      <c r="CM34" s="89"/>
-      <c r="CN34" s="89"/>
-      <c r="CO34" s="89"/>
-      <c r="CP34" s="89"/>
-      <c r="CQ34" s="89"/>
-      <c r="CR34" s="89"/>
-      <c r="CS34" s="89"/>
-      <c r="CT34" s="89"/>
-      <c r="CU34" s="89"/>
-      <c r="CV34" s="89"/>
-      <c r="CW34" s="89"/>
-      <c r="CX34" s="89"/>
-      <c r="CY34" s="89"/>
-      <c r="CZ34" s="89"/>
-      <c r="DA34" s="89"/>
-      <c r="DB34" s="89"/>
-      <c r="DC34" s="89"/>
-      <c r="DD34" s="89"/>
-      <c r="DE34" s="89"/>
-      <c r="DF34" s="89"/>
-      <c r="DG34" s="89"/>
-      <c r="DH34" s="89"/>
-      <c r="DI34" s="89"/>
-      <c r="DJ34" s="89"/>
-      <c r="DK34" s="89"/>
-      <c r="DL34" s="89"/>
-      <c r="DM34" s="89"/>
-      <c r="DN34" s="89"/>
-      <c r="DO34" s="89"/>
-      <c r="DP34" s="89"/>
-      <c r="DQ34" s="89"/>
-      <c r="DR34" s="89"/>
-      <c r="DS34" s="89"/>
-      <c r="DT34" s="89"/>
-      <c r="DU34" s="89"/>
-      <c r="DV34" s="89"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="87"/>
+      <c r="AE34" s="87"/>
+      <c r="AF34" s="87"/>
+      <c r="AG34" s="87"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="87"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="87"/>
+      <c r="AM34" s="87"/>
+      <c r="AN34" s="87"/>
+      <c r="AO34" s="87"/>
+      <c r="AP34" s="87"/>
+      <c r="AQ34" s="87"/>
+      <c r="AR34" s="87"/>
+      <c r="AS34" s="87"/>
+      <c r="AT34" s="87"/>
+      <c r="AU34" s="87"/>
+      <c r="AV34" s="87"/>
+      <c r="AW34" s="87"/>
+      <c r="AX34" s="87"/>
+      <c r="AY34" s="87"/>
+      <c r="AZ34" s="87"/>
+      <c r="BA34" s="87"/>
+      <c r="BB34" s="87"/>
+      <c r="BC34" s="87"/>
+      <c r="BD34" s="87"/>
+      <c r="BE34" s="87"/>
+      <c r="BF34" s="87"/>
+      <c r="BG34" s="87"/>
+      <c r="BH34" s="87"/>
+      <c r="BI34" s="87"/>
+      <c r="BJ34" s="87"/>
+      <c r="BK34" s="87"/>
+      <c r="BL34" s="87"/>
+      <c r="BM34" s="87"/>
+      <c r="BN34" s="87"/>
+      <c r="BO34" s="87"/>
+      <c r="BP34" s="87"/>
+      <c r="BQ34" s="87"/>
+      <c r="BR34" s="87"/>
+      <c r="BS34" s="87"/>
+      <c r="BT34" s="87"/>
+      <c r="BU34" s="87"/>
+      <c r="BV34" s="87"/>
+      <c r="BW34" s="87"/>
+      <c r="BX34" s="87"/>
+      <c r="BY34" s="87"/>
+      <c r="BZ34" s="87"/>
+      <c r="CA34" s="87"/>
+      <c r="CB34" s="87"/>
+      <c r="CC34" s="87"/>
+      <c r="CD34" s="87"/>
+      <c r="CE34" s="87"/>
+      <c r="CF34" s="87"/>
+      <c r="CG34" s="87"/>
+      <c r="CH34" s="87"/>
+      <c r="CI34" s="87"/>
+      <c r="CJ34" s="87"/>
+      <c r="CK34" s="87"/>
+      <c r="CL34" s="87"/>
+      <c r="CM34" s="87"/>
+      <c r="CN34" s="87"/>
+      <c r="CO34" s="87"/>
+      <c r="CP34" s="87"/>
+      <c r="CQ34" s="87"/>
+      <c r="CR34" s="87"/>
+      <c r="CS34" s="87"/>
+      <c r="CT34" s="87"/>
+      <c r="CU34" s="87"/>
+      <c r="CV34" s="87"/>
+      <c r="CW34" s="87"/>
+      <c r="CX34" s="87"/>
+      <c r="CY34" s="87"/>
+      <c r="CZ34" s="87"/>
+      <c r="DA34" s="87"/>
+      <c r="DB34" s="87"/>
+      <c r="DC34" s="87"/>
+      <c r="DD34" s="87"/>
+      <c r="DE34" s="87"/>
+      <c r="DF34" s="87"/>
+      <c r="DG34" s="87"/>
+      <c r="DH34" s="87"/>
+      <c r="DI34" s="87"/>
+      <c r="DJ34" s="87"/>
+      <c r="DK34" s="87"/>
+      <c r="DL34" s="87"/>
+      <c r="DM34" s="87"/>
+      <c r="DN34" s="87"/>
+      <c r="DO34" s="87"/>
+      <c r="DP34" s="87"/>
+      <c r="DQ34" s="87"/>
+      <c r="DR34" s="87"/>
+      <c r="DS34" s="87"/>
+      <c r="DT34" s="87"/>
+      <c r="DU34" s="87"/>
+      <c r="DV34" s="87"/>
     </row>
     <row r="35" spans="1:155" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="94"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="89"/>
-      <c r="AB35" s="89"/>
-      <c r="AC35" s="89"/>
-      <c r="AD35" s="89"/>
-      <c r="AE35" s="89"/>
-      <c r="AF35" s="89"/>
-      <c r="AG35" s="89"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="89"/>
-      <c r="AJ35" s="89"/>
-      <c r="AK35" s="89"/>
-      <c r="AL35" s="89"/>
-      <c r="AM35" s="89"/>
-      <c r="AN35" s="89"/>
-      <c r="AO35" s="89"/>
-      <c r="AP35" s="89"/>
-      <c r="AQ35" s="89"/>
-      <c r="AR35" s="89"/>
-      <c r="AS35" s="89"/>
-      <c r="AT35" s="89"/>
-      <c r="AU35" s="89"/>
-      <c r="AV35" s="89"/>
-      <c r="AW35" s="89"/>
-      <c r="AX35" s="89"/>
-      <c r="AY35" s="89"/>
-      <c r="AZ35" s="89"/>
-      <c r="BA35" s="89"/>
-      <c r="BB35" s="89"/>
-      <c r="BC35" s="89"/>
-      <c r="BD35" s="89"/>
-      <c r="BE35" s="89"/>
-      <c r="BF35" s="89"/>
-      <c r="BG35" s="89"/>
-      <c r="BH35" s="89"/>
-      <c r="BI35" s="89"/>
-      <c r="BJ35" s="89"/>
-      <c r="BK35" s="89"/>
-      <c r="BL35" s="89"/>
-      <c r="BM35" s="89"/>
-      <c r="BN35" s="89"/>
-      <c r="BO35" s="89"/>
-      <c r="BP35" s="89"/>
-      <c r="BQ35" s="89"/>
-      <c r="BR35" s="89"/>
-      <c r="BS35" s="89"/>
-      <c r="BT35" s="89"/>
-      <c r="BU35" s="89"/>
-      <c r="BV35" s="89"/>
-      <c r="BW35" s="89"/>
-      <c r="BX35" s="89"/>
-      <c r="BY35" s="89"/>
-      <c r="BZ35" s="89"/>
-      <c r="CA35" s="89"/>
-      <c r="CB35" s="89"/>
-      <c r="CC35" s="89"/>
-      <c r="CD35" s="89"/>
-      <c r="CE35" s="89"/>
-      <c r="CF35" s="89"/>
-      <c r="CG35" s="89"/>
-      <c r="CH35" s="89"/>
-      <c r="CI35" s="89"/>
-      <c r="CJ35" s="89"/>
-      <c r="CK35" s="89"/>
-      <c r="CL35" s="89"/>
-      <c r="CM35" s="89"/>
-      <c r="CN35" s="89"/>
-      <c r="CO35" s="89"/>
-      <c r="CP35" s="89"/>
-      <c r="CQ35" s="89"/>
-      <c r="CR35" s="89"/>
-      <c r="CS35" s="89"/>
-      <c r="CT35" s="89"/>
-      <c r="CU35" s="89"/>
-      <c r="CV35" s="89"/>
-      <c r="CW35" s="89"/>
-      <c r="CX35" s="89"/>
-      <c r="CY35" s="89"/>
-      <c r="CZ35" s="89"/>
-      <c r="DA35" s="89"/>
-      <c r="DB35" s="89"/>
-      <c r="DC35" s="89"/>
-      <c r="DD35" s="89"/>
-      <c r="DE35" s="89"/>
-      <c r="DF35" s="89"/>
-      <c r="DG35" s="89"/>
-      <c r="DH35" s="89"/>
-      <c r="DI35" s="89"/>
-      <c r="DJ35" s="89"/>
-      <c r="DK35" s="89"/>
-      <c r="DL35" s="89"/>
-      <c r="DM35" s="89"/>
-      <c r="DN35" s="89"/>
-      <c r="DO35" s="89"/>
-      <c r="DP35" s="89"/>
-      <c r="DQ35" s="89"/>
-      <c r="DR35" s="89"/>
-      <c r="DS35" s="89"/>
-      <c r="DT35" s="89"/>
-      <c r="DU35" s="89"/>
-      <c r="DV35" s="89"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="87"/>
+      <c r="AC35" s="87"/>
+      <c r="AD35" s="87"/>
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="87"/>
+      <c r="AG35" s="87"/>
+      <c r="AH35" s="87"/>
+      <c r="AI35" s="87"/>
+      <c r="AJ35" s="87"/>
+      <c r="AK35" s="87"/>
+      <c r="AL35" s="87"/>
+      <c r="AM35" s="87"/>
+      <c r="AN35" s="87"/>
+      <c r="AO35" s="87"/>
+      <c r="AP35" s="87"/>
+      <c r="AQ35" s="87"/>
+      <c r="AR35" s="87"/>
+      <c r="AS35" s="87"/>
+      <c r="AT35" s="87"/>
+      <c r="AU35" s="87"/>
+      <c r="AV35" s="87"/>
+      <c r="AW35" s="87"/>
+      <c r="AX35" s="87"/>
+      <c r="AY35" s="87"/>
+      <c r="AZ35" s="87"/>
+      <c r="BA35" s="87"/>
+      <c r="BB35" s="87"/>
+      <c r="BC35" s="87"/>
+      <c r="BD35" s="87"/>
+      <c r="BE35" s="87"/>
+      <c r="BF35" s="87"/>
+      <c r="BG35" s="87"/>
+      <c r="BH35" s="87"/>
+      <c r="BI35" s="87"/>
+      <c r="BJ35" s="87"/>
+      <c r="BK35" s="87"/>
+      <c r="BL35" s="87"/>
+      <c r="BM35" s="87"/>
+      <c r="BN35" s="87"/>
+      <c r="BO35" s="87"/>
+      <c r="BP35" s="87"/>
+      <c r="BQ35" s="87"/>
+      <c r="BR35" s="87"/>
+      <c r="BS35" s="87"/>
+      <c r="BT35" s="87"/>
+      <c r="BU35" s="87"/>
+      <c r="BV35" s="87"/>
+      <c r="BW35" s="87"/>
+      <c r="BX35" s="87"/>
+      <c r="BY35" s="87"/>
+      <c r="BZ35" s="87"/>
+      <c r="CA35" s="87"/>
+      <c r="CB35" s="87"/>
+      <c r="CC35" s="87"/>
+      <c r="CD35" s="87"/>
+      <c r="CE35" s="87"/>
+      <c r="CF35" s="87"/>
+      <c r="CG35" s="87"/>
+      <c r="CH35" s="87"/>
+      <c r="CI35" s="87"/>
+      <c r="CJ35" s="87"/>
+      <c r="CK35" s="87"/>
+      <c r="CL35" s="87"/>
+      <c r="CM35" s="87"/>
+      <c r="CN35" s="87"/>
+      <c r="CO35" s="87"/>
+      <c r="CP35" s="87"/>
+      <c r="CQ35" s="87"/>
+      <c r="CR35" s="87"/>
+      <c r="CS35" s="87"/>
+      <c r="CT35" s="87"/>
+      <c r="CU35" s="87"/>
+      <c r="CV35" s="87"/>
+      <c r="CW35" s="87"/>
+      <c r="CX35" s="87"/>
+      <c r="CY35" s="87"/>
+      <c r="CZ35" s="87"/>
+      <c r="DA35" s="87"/>
+      <c r="DB35" s="87"/>
+      <c r="DC35" s="87"/>
+      <c r="DD35" s="87"/>
+      <c r="DE35" s="87"/>
+      <c r="DF35" s="87"/>
+      <c r="DG35" s="87"/>
+      <c r="DH35" s="87"/>
+      <c r="DI35" s="87"/>
+      <c r="DJ35" s="87"/>
+      <c r="DK35" s="87"/>
+      <c r="DL35" s="87"/>
+      <c r="DM35" s="87"/>
+      <c r="DN35" s="87"/>
+      <c r="DO35" s="87"/>
+      <c r="DP35" s="87"/>
+      <c r="DQ35" s="87"/>
+      <c r="DR35" s="87"/>
+      <c r="DS35" s="87"/>
+      <c r="DT35" s="87"/>
+      <c r="DU35" s="87"/>
+      <c r="DV35" s="87"/>
     </row>
     <row r="36" spans="1:155" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="89"/>
-      <c r="AC36" s="89"/>
-      <c r="AD36" s="89"/>
-      <c r="AE36" s="89"/>
-      <c r="AF36" s="89"/>
-      <c r="AG36" s="89"/>
-      <c r="AH36" s="89"/>
-      <c r="AI36" s="89"/>
-      <c r="AJ36" s="89"/>
-      <c r="AK36" s="89"/>
-      <c r="AL36" s="89"/>
-      <c r="AM36" s="89"/>
-      <c r="AN36" s="89"/>
-      <c r="AO36" s="89"/>
-      <c r="AP36" s="89"/>
-      <c r="AQ36" s="89"/>
-      <c r="AR36" s="89"/>
-      <c r="AS36" s="89"/>
-      <c r="AT36" s="89"/>
-      <c r="AU36" s="89"/>
-      <c r="AV36" s="89"/>
-      <c r="AW36" s="89"/>
-      <c r="AX36" s="89"/>
-      <c r="AY36" s="89"/>
-      <c r="AZ36" s="89"/>
-      <c r="BA36" s="89"/>
-      <c r="BB36" s="89"/>
-      <c r="BC36" s="89"/>
-      <c r="BD36" s="89"/>
-      <c r="BE36" s="89"/>
-      <c r="BF36" s="89"/>
-      <c r="BG36" s="89"/>
-      <c r="BH36" s="89"/>
-      <c r="BI36" s="89"/>
-      <c r="BJ36" s="89"/>
-      <c r="BK36" s="89"/>
-      <c r="BL36" s="89"/>
-      <c r="BM36" s="89"/>
-      <c r="BN36" s="89"/>
-      <c r="BO36" s="89"/>
-      <c r="BP36" s="89"/>
-      <c r="BQ36" s="89"/>
-      <c r="BR36" s="89"/>
-      <c r="BS36" s="89"/>
-      <c r="BT36" s="89"/>
-      <c r="BU36" s="89"/>
-      <c r="BV36" s="89"/>
-      <c r="BW36" s="89"/>
-      <c r="BX36" s="89"/>
-      <c r="BY36" s="89"/>
-      <c r="BZ36" s="89"/>
-      <c r="CA36" s="89"/>
-      <c r="CB36" s="89"/>
-      <c r="CC36" s="89"/>
-      <c r="CD36" s="89"/>
-      <c r="CE36" s="89"/>
-      <c r="CF36" s="89"/>
-      <c r="CG36" s="89"/>
-      <c r="CH36" s="89"/>
-      <c r="CI36" s="89"/>
-      <c r="CJ36" s="89"/>
-      <c r="CK36" s="89"/>
-      <c r="CL36" s="89"/>
-      <c r="CM36" s="89"/>
-      <c r="CN36" s="89"/>
-      <c r="CO36" s="89"/>
-      <c r="CP36" s="89"/>
-      <c r="CQ36" s="89"/>
-      <c r="CR36" s="89"/>
-      <c r="CS36" s="89"/>
-      <c r="CT36" s="89"/>
-      <c r="CU36" s="89"/>
-      <c r="CV36" s="89"/>
-      <c r="CW36" s="89"/>
-      <c r="CX36" s="89"/>
-      <c r="CY36" s="89"/>
-      <c r="CZ36" s="89"/>
-      <c r="DA36" s="89"/>
-      <c r="DB36" s="89"/>
-      <c r="DC36" s="89"/>
-      <c r="DD36" s="89"/>
-      <c r="DE36" s="89"/>
-      <c r="DF36" s="89"/>
-      <c r="DG36" s="89"/>
-      <c r="DH36" s="89"/>
-      <c r="DI36" s="89"/>
-      <c r="DJ36" s="89"/>
-      <c r="DK36" s="89"/>
-      <c r="DL36" s="89"/>
-      <c r="DM36" s="89"/>
-      <c r="DN36" s="89"/>
-      <c r="DO36" s="89"/>
-      <c r="DP36" s="89"/>
-      <c r="DQ36" s="89"/>
-      <c r="DR36" s="89"/>
-      <c r="DS36" s="89"/>
-      <c r="DT36" s="89"/>
-      <c r="DU36" s="89"/>
-      <c r="DV36" s="89"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="87"/>
+      <c r="AB36" s="87"/>
+      <c r="AC36" s="87"/>
+      <c r="AD36" s="87"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="87"/>
+      <c r="AG36" s="87"/>
+      <c r="AH36" s="87"/>
+      <c r="AI36" s="87"/>
+      <c r="AJ36" s="87"/>
+      <c r="AK36" s="87"/>
+      <c r="AL36" s="87"/>
+      <c r="AM36" s="87"/>
+      <c r="AN36" s="87"/>
+      <c r="AO36" s="87"/>
+      <c r="AP36" s="87"/>
+      <c r="AQ36" s="87"/>
+      <c r="AR36" s="87"/>
+      <c r="AS36" s="87"/>
+      <c r="AT36" s="87"/>
+      <c r="AU36" s="87"/>
+      <c r="AV36" s="87"/>
+      <c r="AW36" s="87"/>
+      <c r="AX36" s="87"/>
+      <c r="AY36" s="87"/>
+      <c r="AZ36" s="87"/>
+      <c r="BA36" s="87"/>
+      <c r="BB36" s="87"/>
+      <c r="BC36" s="87"/>
+      <c r="BD36" s="87"/>
+      <c r="BE36" s="87"/>
+      <c r="BF36" s="87"/>
+      <c r="BG36" s="87"/>
+      <c r="BH36" s="87"/>
+      <c r="BI36" s="87"/>
+      <c r="BJ36" s="87"/>
+      <c r="BK36" s="87"/>
+      <c r="BL36" s="87"/>
+      <c r="BM36" s="87"/>
+      <c r="BN36" s="87"/>
+      <c r="BO36" s="87"/>
+      <c r="BP36" s="87"/>
+      <c r="BQ36" s="87"/>
+      <c r="BR36" s="87"/>
+      <c r="BS36" s="87"/>
+      <c r="BT36" s="87"/>
+      <c r="BU36" s="87"/>
+      <c r="BV36" s="87"/>
+      <c r="BW36" s="87"/>
+      <c r="BX36" s="87"/>
+      <c r="BY36" s="87"/>
+      <c r="BZ36" s="87"/>
+      <c r="CA36" s="87"/>
+      <c r="CB36" s="87"/>
+      <c r="CC36" s="87"/>
+      <c r="CD36" s="87"/>
+      <c r="CE36" s="87"/>
+      <c r="CF36" s="87"/>
+      <c r="CG36" s="87"/>
+      <c r="CH36" s="87"/>
+      <c r="CI36" s="87"/>
+      <c r="CJ36" s="87"/>
+      <c r="CK36" s="87"/>
+      <c r="CL36" s="87"/>
+      <c r="CM36" s="87"/>
+      <c r="CN36" s="87"/>
+      <c r="CO36" s="87"/>
+      <c r="CP36" s="87"/>
+      <c r="CQ36" s="87"/>
+      <c r="CR36" s="87"/>
+      <c r="CS36" s="87"/>
+      <c r="CT36" s="87"/>
+      <c r="CU36" s="87"/>
+      <c r="CV36" s="87"/>
+      <c r="CW36" s="87"/>
+      <c r="CX36" s="87"/>
+      <c r="CY36" s="87"/>
+      <c r="CZ36" s="87"/>
+      <c r="DA36" s="87"/>
+      <c r="DB36" s="87"/>
+      <c r="DC36" s="87"/>
+      <c r="DD36" s="87"/>
+      <c r="DE36" s="87"/>
+      <c r="DF36" s="87"/>
+      <c r="DG36" s="87"/>
+      <c r="DH36" s="87"/>
+      <c r="DI36" s="87"/>
+      <c r="DJ36" s="87"/>
+      <c r="DK36" s="87"/>
+      <c r="DL36" s="87"/>
+      <c r="DM36" s="87"/>
+      <c r="DN36" s="87"/>
+      <c r="DO36" s="87"/>
+      <c r="DP36" s="87"/>
+      <c r="DQ36" s="87"/>
+      <c r="DR36" s="87"/>
+      <c r="DS36" s="87"/>
+      <c r="DT36" s="87"/>
+      <c r="DU36" s="87"/>
+      <c r="DV36" s="87"/>
     </row>
     <row r="37" spans="1:155" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="89"/>
-      <c r="AD37" s="89"/>
-      <c r="AE37" s="89"/>
-      <c r="AF37" s="89"/>
-      <c r="AG37" s="89"/>
-      <c r="AH37" s="89"/>
-      <c r="AI37" s="89"/>
-      <c r="AJ37" s="89"/>
-      <c r="AK37" s="89"/>
-      <c r="AL37" s="89"/>
-      <c r="AM37" s="89"/>
-      <c r="AN37" s="89"/>
-      <c r="AO37" s="89"/>
-      <c r="AP37" s="89"/>
-      <c r="AQ37" s="89"/>
-      <c r="AR37" s="89"/>
-      <c r="AS37" s="89"/>
-      <c r="AT37" s="89"/>
-      <c r="AU37" s="89"/>
-      <c r="AV37" s="89"/>
-      <c r="AW37" s="89"/>
-      <c r="AX37" s="89"/>
-      <c r="AY37" s="89"/>
-      <c r="AZ37" s="89"/>
-      <c r="BA37" s="89"/>
-      <c r="BB37" s="89"/>
-      <c r="BC37" s="89"/>
-      <c r="BD37" s="89"/>
-      <c r="BE37" s="89"/>
-      <c r="BF37" s="89"/>
-      <c r="BG37" s="89"/>
-      <c r="BH37" s="89"/>
-      <c r="BI37" s="89"/>
-      <c r="BJ37" s="89"/>
-      <c r="BK37" s="89"/>
-      <c r="BL37" s="89"/>
-      <c r="BM37" s="89"/>
-      <c r="BN37" s="89"/>
-      <c r="BO37" s="89"/>
-      <c r="BP37" s="89"/>
-      <c r="BQ37" s="89"/>
-      <c r="BR37" s="89"/>
-      <c r="BS37" s="89"/>
-      <c r="BT37" s="89"/>
-      <c r="BU37" s="89"/>
-      <c r="BV37" s="89"/>
-      <c r="BW37" s="89"/>
-      <c r="BX37" s="89"/>
-      <c r="BY37" s="89"/>
-      <c r="BZ37" s="89"/>
-      <c r="CA37" s="89"/>
-      <c r="CB37" s="89"/>
-      <c r="CC37" s="89"/>
-      <c r="CD37" s="89"/>
-      <c r="CE37" s="89"/>
-      <c r="CF37" s="89"/>
-      <c r="CG37" s="89"/>
-      <c r="CH37" s="89"/>
-      <c r="CI37" s="89"/>
-      <c r="CJ37" s="89"/>
-      <c r="CK37" s="89"/>
-      <c r="CL37" s="89"/>
-      <c r="CM37" s="89"/>
-      <c r="CN37" s="89"/>
-      <c r="CO37" s="89"/>
-      <c r="CP37" s="89"/>
-      <c r="CQ37" s="89"/>
-      <c r="CR37" s="89"/>
-      <c r="CS37" s="89"/>
-      <c r="CT37" s="89"/>
-      <c r="CU37" s="89"/>
-      <c r="CV37" s="89"/>
-      <c r="CW37" s="89"/>
-      <c r="CX37" s="89"/>
-      <c r="CY37" s="89"/>
-      <c r="CZ37" s="89"/>
-      <c r="DA37" s="89"/>
-      <c r="DB37" s="89"/>
-      <c r="DC37" s="89"/>
-      <c r="DD37" s="89"/>
-      <c r="DE37" s="89"/>
-      <c r="DF37" s="89"/>
-      <c r="DG37" s="89"/>
-      <c r="DH37" s="89"/>
-      <c r="DI37" s="89"/>
-      <c r="DJ37" s="89"/>
-      <c r="DK37" s="89"/>
-      <c r="DL37" s="89"/>
-      <c r="DM37" s="89"/>
-      <c r="DN37" s="89"/>
-      <c r="DO37" s="89"/>
-      <c r="DP37" s="89"/>
-      <c r="DQ37" s="89"/>
-      <c r="DR37" s="89"/>
-      <c r="DS37" s="89"/>
-      <c r="DT37" s="89"/>
-      <c r="DU37" s="89"/>
-      <c r="DV37" s="89"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="87"/>
+      <c r="AB37" s="87"/>
+      <c r="AC37" s="87"/>
+      <c r="AD37" s="87"/>
+      <c r="AE37" s="87"/>
+      <c r="AF37" s="87"/>
+      <c r="AG37" s="87"/>
+      <c r="AH37" s="87"/>
+      <c r="AI37" s="87"/>
+      <c r="AJ37" s="87"/>
+      <c r="AK37" s="87"/>
+      <c r="AL37" s="87"/>
+      <c r="AM37" s="87"/>
+      <c r="AN37" s="87"/>
+      <c r="AO37" s="87"/>
+      <c r="AP37" s="87"/>
+      <c r="AQ37" s="87"/>
+      <c r="AR37" s="87"/>
+      <c r="AS37" s="87"/>
+      <c r="AT37" s="87"/>
+      <c r="AU37" s="87"/>
+      <c r="AV37" s="87"/>
+      <c r="AW37" s="87"/>
+      <c r="AX37" s="87"/>
+      <c r="AY37" s="87"/>
+      <c r="AZ37" s="87"/>
+      <c r="BA37" s="87"/>
+      <c r="BB37" s="87"/>
+      <c r="BC37" s="87"/>
+      <c r="BD37" s="87"/>
+      <c r="BE37" s="87"/>
+      <c r="BF37" s="87"/>
+      <c r="BG37" s="87"/>
+      <c r="BH37" s="87"/>
+      <c r="BI37" s="87"/>
+      <c r="BJ37" s="87"/>
+      <c r="BK37" s="87"/>
+      <c r="BL37" s="87"/>
+      <c r="BM37" s="87"/>
+      <c r="BN37" s="87"/>
+      <c r="BO37" s="87"/>
+      <c r="BP37" s="87"/>
+      <c r="BQ37" s="87"/>
+      <c r="BR37" s="87"/>
+      <c r="BS37" s="87"/>
+      <c r="BT37" s="87"/>
+      <c r="BU37" s="87"/>
+      <c r="BV37" s="87"/>
+      <c r="BW37" s="87"/>
+      <c r="BX37" s="87"/>
+      <c r="BY37" s="87"/>
+      <c r="BZ37" s="87"/>
+      <c r="CA37" s="87"/>
+      <c r="CB37" s="87"/>
+      <c r="CC37" s="87"/>
+      <c r="CD37" s="87"/>
+      <c r="CE37" s="87"/>
+      <c r="CF37" s="87"/>
+      <c r="CG37" s="87"/>
+      <c r="CH37" s="87"/>
+      <c r="CI37" s="87"/>
+      <c r="CJ37" s="87"/>
+      <c r="CK37" s="87"/>
+      <c r="CL37" s="87"/>
+      <c r="CM37" s="87"/>
+      <c r="CN37" s="87"/>
+      <c r="CO37" s="87"/>
+      <c r="CP37" s="87"/>
+      <c r="CQ37" s="87"/>
+      <c r="CR37" s="87"/>
+      <c r="CS37" s="87"/>
+      <c r="CT37" s="87"/>
+      <c r="CU37" s="87"/>
+      <c r="CV37" s="87"/>
+      <c r="CW37" s="87"/>
+      <c r="CX37" s="87"/>
+      <c r="CY37" s="87"/>
+      <c r="CZ37" s="87"/>
+      <c r="DA37" s="87"/>
+      <c r="DB37" s="87"/>
+      <c r="DC37" s="87"/>
+      <c r="DD37" s="87"/>
+      <c r="DE37" s="87"/>
+      <c r="DF37" s="87"/>
+      <c r="DG37" s="87"/>
+      <c r="DH37" s="87"/>
+      <c r="DI37" s="87"/>
+      <c r="DJ37" s="87"/>
+      <c r="DK37" s="87"/>
+      <c r="DL37" s="87"/>
+      <c r="DM37" s="87"/>
+      <c r="DN37" s="87"/>
+      <c r="DO37" s="87"/>
+      <c r="DP37" s="87"/>
+      <c r="DQ37" s="87"/>
+      <c r="DR37" s="87"/>
+      <c r="DS37" s="87"/>
+      <c r="DT37" s="87"/>
+      <c r="DU37" s="87"/>
+      <c r="DV37" s="87"/>
     </row>
     <row r="38" spans="1:155" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="89"/>
-      <c r="AC38" s="89"/>
-      <c r="AD38" s="89"/>
-      <c r="AE38" s="89"/>
-      <c r="AF38" s="89"/>
-      <c r="AG38" s="89"/>
-      <c r="AH38" s="89"/>
-      <c r="AI38" s="89"/>
-      <c r="AJ38" s="89"/>
-      <c r="AK38" s="89"/>
-      <c r="AL38" s="89"/>
-      <c r="AM38" s="89"/>
-      <c r="AN38" s="89"/>
-      <c r="AO38" s="89"/>
-      <c r="AP38" s="89"/>
-      <c r="AQ38" s="89"/>
-      <c r="AR38" s="89"/>
-      <c r="AS38" s="89"/>
-      <c r="AT38" s="89"/>
-      <c r="AU38" s="89"/>
-      <c r="AV38" s="89"/>
-      <c r="AW38" s="89"/>
-      <c r="AX38" s="89"/>
-      <c r="AY38" s="89"/>
-      <c r="AZ38" s="89"/>
-      <c r="BA38" s="89"/>
-      <c r="BB38" s="89"/>
-      <c r="BC38" s="89"/>
-      <c r="BD38" s="89"/>
-      <c r="BE38" s="89"/>
-      <c r="BF38" s="89"/>
-      <c r="BG38" s="89"/>
-      <c r="BH38" s="89"/>
-      <c r="BI38" s="89"/>
-      <c r="BJ38" s="89"/>
-      <c r="BK38" s="89"/>
-      <c r="BL38" s="89"/>
-      <c r="BM38" s="89"/>
-      <c r="BN38" s="89"/>
-      <c r="BO38" s="89"/>
-      <c r="BP38" s="89"/>
-      <c r="BQ38" s="89"/>
-      <c r="BR38" s="89"/>
-      <c r="BS38" s="89"/>
-      <c r="BT38" s="89"/>
-      <c r="BU38" s="89"/>
-      <c r="BV38" s="89"/>
-      <c r="BW38" s="89"/>
-      <c r="BX38" s="89"/>
-      <c r="BY38" s="89"/>
-      <c r="BZ38" s="89"/>
-      <c r="CA38" s="89"/>
-      <c r="CB38" s="89"/>
-      <c r="CC38" s="89"/>
-      <c r="CD38" s="89"/>
-      <c r="CE38" s="89"/>
-      <c r="CF38" s="89"/>
-      <c r="CG38" s="89"/>
-      <c r="CH38" s="89"/>
-      <c r="CI38" s="89"/>
-      <c r="CJ38" s="89"/>
-      <c r="CK38" s="89"/>
-      <c r="CL38" s="89"/>
-      <c r="CM38" s="89"/>
-      <c r="CN38" s="89"/>
-      <c r="CO38" s="89"/>
-      <c r="CP38" s="89"/>
-      <c r="CQ38" s="89"/>
-      <c r="CR38" s="89"/>
-      <c r="CS38" s="89"/>
-      <c r="CT38" s="89"/>
-      <c r="CU38" s="89"/>
-      <c r="CV38" s="89"/>
-      <c r="CW38" s="89"/>
-      <c r="CX38" s="89"/>
-      <c r="CY38" s="89"/>
-      <c r="CZ38" s="89"/>
-      <c r="DA38" s="89"/>
-      <c r="DB38" s="89"/>
-      <c r="DC38" s="89"/>
-      <c r="DD38" s="89"/>
-      <c r="DE38" s="89"/>
-      <c r="DF38" s="89"/>
-      <c r="DG38" s="89"/>
-      <c r="DH38" s="89"/>
-      <c r="DI38" s="89"/>
-      <c r="DJ38" s="89"/>
-      <c r="DK38" s="89"/>
-      <c r="DL38" s="89"/>
-      <c r="DM38" s="89"/>
-      <c r="DN38" s="89"/>
-      <c r="DO38" s="89"/>
-      <c r="DP38" s="89"/>
-      <c r="DQ38" s="89"/>
-      <c r="DR38" s="89"/>
-      <c r="DS38" s="89"/>
-      <c r="DT38" s="89"/>
-      <c r="DU38" s="89"/>
-      <c r="DV38" s="89"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="87"/>
+      <c r="AB38" s="87"/>
+      <c r="AC38" s="87"/>
+      <c r="AD38" s="87"/>
+      <c r="AE38" s="87"/>
+      <c r="AF38" s="87"/>
+      <c r="AG38" s="87"/>
+      <c r="AH38" s="87"/>
+      <c r="AI38" s="87"/>
+      <c r="AJ38" s="87"/>
+      <c r="AK38" s="87"/>
+      <c r="AL38" s="87"/>
+      <c r="AM38" s="87"/>
+      <c r="AN38" s="87"/>
+      <c r="AO38" s="87"/>
+      <c r="AP38" s="87"/>
+      <c r="AQ38" s="87"/>
+      <c r="AR38" s="87"/>
+      <c r="AS38" s="87"/>
+      <c r="AT38" s="87"/>
+      <c r="AU38" s="87"/>
+      <c r="AV38" s="87"/>
+      <c r="AW38" s="87"/>
+      <c r="AX38" s="87"/>
+      <c r="AY38" s="87"/>
+      <c r="AZ38" s="87"/>
+      <c r="BA38" s="87"/>
+      <c r="BB38" s="87"/>
+      <c r="BC38" s="87"/>
+      <c r="BD38" s="87"/>
+      <c r="BE38" s="87"/>
+      <c r="BF38" s="87"/>
+      <c r="BG38" s="87"/>
+      <c r="BH38" s="87"/>
+      <c r="BI38" s="87"/>
+      <c r="BJ38" s="87"/>
+      <c r="BK38" s="87"/>
+      <c r="BL38" s="87"/>
+      <c r="BM38" s="87"/>
+      <c r="BN38" s="87"/>
+      <c r="BO38" s="87"/>
+      <c r="BP38" s="87"/>
+      <c r="BQ38" s="87"/>
+      <c r="BR38" s="87"/>
+      <c r="BS38" s="87"/>
+      <c r="BT38" s="87"/>
+      <c r="BU38" s="87"/>
+      <c r="BV38" s="87"/>
+      <c r="BW38" s="87"/>
+      <c r="BX38" s="87"/>
+      <c r="BY38" s="87"/>
+      <c r="BZ38" s="87"/>
+      <c r="CA38" s="87"/>
+      <c r="CB38" s="87"/>
+      <c r="CC38" s="87"/>
+      <c r="CD38" s="87"/>
+      <c r="CE38" s="87"/>
+      <c r="CF38" s="87"/>
+      <c r="CG38" s="87"/>
+      <c r="CH38" s="87"/>
+      <c r="CI38" s="87"/>
+      <c r="CJ38" s="87"/>
+      <c r="CK38" s="87"/>
+      <c r="CL38" s="87"/>
+      <c r="CM38" s="87"/>
+      <c r="CN38" s="87"/>
+      <c r="CO38" s="87"/>
+      <c r="CP38" s="87"/>
+      <c r="CQ38" s="87"/>
+      <c r="CR38" s="87"/>
+      <c r="CS38" s="87"/>
+      <c r="CT38" s="87"/>
+      <c r="CU38" s="87"/>
+      <c r="CV38" s="87"/>
+      <c r="CW38" s="87"/>
+      <c r="CX38" s="87"/>
+      <c r="CY38" s="87"/>
+      <c r="CZ38" s="87"/>
+      <c r="DA38" s="87"/>
+      <c r="DB38" s="87"/>
+      <c r="DC38" s="87"/>
+      <c r="DD38" s="87"/>
+      <c r="DE38" s="87"/>
+      <c r="DF38" s="87"/>
+      <c r="DG38" s="87"/>
+      <c r="DH38" s="87"/>
+      <c r="DI38" s="87"/>
+      <c r="DJ38" s="87"/>
+      <c r="DK38" s="87"/>
+      <c r="DL38" s="87"/>
+      <c r="DM38" s="87"/>
+      <c r="DN38" s="87"/>
+      <c r="DO38" s="87"/>
+      <c r="DP38" s="87"/>
+      <c r="DQ38" s="87"/>
+      <c r="DR38" s="87"/>
+      <c r="DS38" s="87"/>
+      <c r="DT38" s="87"/>
+      <c r="DU38" s="87"/>
+      <c r="DV38" s="87"/>
     </row>
     <row r="39" spans="1:155" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="97"/>
-      <c r="T39" s="97"/>
-      <c r="U39" s="97"/>
-      <c r="V39" s="97"/>
-      <c r="W39" s="97"/>
-      <c r="X39" s="97"/>
-      <c r="Y39" s="97"/>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="97"/>
-      <c r="AB39" s="97"/>
-      <c r="AC39" s="97"/>
-      <c r="AD39" s="97"/>
-      <c r="AE39" s="97"/>
-      <c r="AF39" s="97"/>
-      <c r="AG39" s="97"/>
-      <c r="AH39" s="97"/>
-      <c r="AI39" s="97"/>
-      <c r="AJ39" s="97"/>
-      <c r="AK39" s="97"/>
-      <c r="AL39" s="97"/>
-      <c r="AM39" s="97"/>
-      <c r="AN39" s="97"/>
-      <c r="AO39" s="97"/>
-      <c r="AP39" s="97"/>
-      <c r="AQ39" s="97"/>
-      <c r="AR39" s="97"/>
-      <c r="AS39" s="97"/>
-      <c r="AT39" s="97"/>
-      <c r="AU39" s="97"/>
-      <c r="AV39" s="97"/>
-      <c r="AW39" s="97"/>
-      <c r="AX39" s="97"/>
-      <c r="AY39" s="97"/>
-      <c r="AZ39" s="97"/>
-      <c r="BA39" s="97"/>
-      <c r="BB39" s="97"/>
-      <c r="BC39" s="97"/>
-      <c r="BD39" s="97"/>
-      <c r="BE39" s="97"/>
-      <c r="BF39" s="97"/>
-      <c r="BG39" s="97"/>
-      <c r="BH39" s="97"/>
-      <c r="BI39" s="97"/>
-      <c r="BJ39" s="97"/>
-      <c r="BK39" s="97"/>
-      <c r="BL39" s="97"/>
-      <c r="BM39" s="97"/>
-      <c r="BN39" s="97"/>
-      <c r="BO39" s="97"/>
-      <c r="BP39" s="97"/>
-      <c r="BQ39" s="97"/>
-      <c r="BR39" s="97"/>
-      <c r="BS39" s="97"/>
-      <c r="BT39" s="97"/>
-      <c r="BU39" s="97"/>
-      <c r="BV39" s="97"/>
-      <c r="BW39" s="97"/>
-      <c r="BX39" s="97"/>
-      <c r="BY39" s="97"/>
-      <c r="BZ39" s="97"/>
-      <c r="CA39" s="97"/>
-      <c r="CB39" s="97"/>
-      <c r="CC39" s="97"/>
-      <c r="CD39" s="97"/>
-      <c r="CE39" s="97"/>
-      <c r="CF39" s="97"/>
-      <c r="CG39" s="97"/>
-      <c r="CH39" s="97"/>
-      <c r="CI39" s="97"/>
-      <c r="CJ39" s="97"/>
-      <c r="CK39" s="97"/>
-      <c r="CL39" s="97"/>
-      <c r="CM39" s="97"/>
-      <c r="CN39" s="97"/>
-      <c r="CO39" s="97"/>
-      <c r="CP39" s="97"/>
-      <c r="CQ39" s="97"/>
-      <c r="CR39" s="97"/>
-      <c r="CS39" s="97"/>
-      <c r="CT39" s="97"/>
-      <c r="CU39" s="97"/>
-      <c r="CV39" s="97"/>
-      <c r="CW39" s="97"/>
-      <c r="CX39" s="97"/>
-      <c r="CY39" s="97"/>
-      <c r="CZ39" s="97"/>
-      <c r="DA39" s="97"/>
-      <c r="DB39" s="97"/>
-      <c r="DC39" s="97"/>
-      <c r="DD39" s="97"/>
-      <c r="DE39" s="97"/>
-      <c r="DF39" s="97"/>
-      <c r="DG39" s="97"/>
-      <c r="DH39" s="97"/>
-      <c r="DI39" s="97"/>
-      <c r="DJ39" s="97"/>
-      <c r="DK39" s="97"/>
-      <c r="DL39" s="97"/>
-      <c r="DM39" s="97"/>
-      <c r="DN39" s="97"/>
-      <c r="DO39" s="97"/>
-      <c r="DP39" s="97"/>
-      <c r="DQ39" s="97"/>
-      <c r="DR39" s="97"/>
-      <c r="DS39" s="97"/>
-      <c r="DT39" s="97"/>
-      <c r="DU39" s="97"/>
-      <c r="DV39" s="97"/>
-      <c r="DW39" s="97"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="95"/>
+      <c r="W39" s="95"/>
+      <c r="X39" s="95"/>
+      <c r="Y39" s="95"/>
+      <c r="Z39" s="95"/>
+      <c r="AA39" s="95"/>
+      <c r="AB39" s="95"/>
+      <c r="AC39" s="95"/>
+      <c r="AD39" s="95"/>
+      <c r="AE39" s="95"/>
+      <c r="AF39" s="95"/>
+      <c r="AG39" s="95"/>
+      <c r="AH39" s="95"/>
+      <c r="AI39" s="95"/>
+      <c r="AJ39" s="95"/>
+      <c r="AK39" s="95"/>
+      <c r="AL39" s="95"/>
+      <c r="AM39" s="95"/>
+      <c r="AN39" s="95"/>
+      <c r="AO39" s="95"/>
+      <c r="AP39" s="95"/>
+      <c r="AQ39" s="95"/>
+      <c r="AR39" s="95"/>
+      <c r="AS39" s="95"/>
+      <c r="AT39" s="95"/>
+      <c r="AU39" s="95"/>
+      <c r="AV39" s="95"/>
+      <c r="AW39" s="95"/>
+      <c r="AX39" s="95"/>
+      <c r="AY39" s="95"/>
+      <c r="AZ39" s="95"/>
+      <c r="BA39" s="95"/>
+      <c r="BB39" s="95"/>
+      <c r="BC39" s="95"/>
+      <c r="BD39" s="95"/>
+      <c r="BE39" s="95"/>
+      <c r="BF39" s="95"/>
+      <c r="BG39" s="95"/>
+      <c r="BH39" s="95"/>
+      <c r="BI39" s="95"/>
+      <c r="BJ39" s="95"/>
+      <c r="BK39" s="95"/>
+      <c r="BL39" s="95"/>
+      <c r="BM39" s="95"/>
+      <c r="BN39" s="95"/>
+      <c r="BO39" s="95"/>
+      <c r="BP39" s="95"/>
+      <c r="BQ39" s="95"/>
+      <c r="BR39" s="95"/>
+      <c r="BS39" s="95"/>
+      <c r="BT39" s="95"/>
+      <c r="BU39" s="95"/>
+      <c r="BV39" s="95"/>
+      <c r="BW39" s="95"/>
+      <c r="BX39" s="95"/>
+      <c r="BY39" s="95"/>
+      <c r="BZ39" s="95"/>
+      <c r="CA39" s="95"/>
+      <c r="CB39" s="95"/>
+      <c r="CC39" s="95"/>
+      <c r="CD39" s="95"/>
+      <c r="CE39" s="95"/>
+      <c r="CF39" s="95"/>
+      <c r="CG39" s="95"/>
+      <c r="CH39" s="95"/>
+      <c r="CI39" s="95"/>
+      <c r="CJ39" s="95"/>
+      <c r="CK39" s="95"/>
+      <c r="CL39" s="95"/>
+      <c r="CM39" s="95"/>
+      <c r="CN39" s="95"/>
+      <c r="CO39" s="95"/>
+      <c r="CP39" s="95"/>
+      <c r="CQ39" s="95"/>
+      <c r="CR39" s="95"/>
+      <c r="CS39" s="95"/>
+      <c r="CT39" s="95"/>
+      <c r="CU39" s="95"/>
+      <c r="CV39" s="95"/>
+      <c r="CW39" s="95"/>
+      <c r="CX39" s="95"/>
+      <c r="CY39" s="95"/>
+      <c r="CZ39" s="95"/>
+      <c r="DA39" s="95"/>
+      <c r="DB39" s="95"/>
+      <c r="DC39" s="95"/>
+      <c r="DD39" s="95"/>
+      <c r="DE39" s="95"/>
+      <c r="DF39" s="95"/>
+      <c r="DG39" s="95"/>
+      <c r="DH39" s="95"/>
+      <c r="DI39" s="95"/>
+      <c r="DJ39" s="95"/>
+      <c r="DK39" s="95"/>
+      <c r="DL39" s="95"/>
+      <c r="DM39" s="95"/>
+      <c r="DN39" s="95"/>
+      <c r="DO39" s="95"/>
+      <c r="DP39" s="95"/>
+      <c r="DQ39" s="95"/>
+      <c r="DR39" s="95"/>
+      <c r="DS39" s="95"/>
+      <c r="DT39" s="95"/>
+      <c r="DU39" s="95"/>
+      <c r="DV39" s="95"/>
+      <c r="DW39" s="95"/>
     </row>
     <row r="41" spans="1:155" ht="29.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="99"/>
+      <c r="B41" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
@@ -13120,11 +13127,16 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="DQ4:DW4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D26">
     <cfRule type="dataBar" priority="460">
@@ -14947,7 +14959,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108"/>
+      <c r="A1" s="106"/>
     </row>
     <row r="2" spans="1:2" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -14958,7 +14970,7 @@
       <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:2" s="22" customFormat="1" ht="26.05" x14ac:dyDescent="0.5">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="105" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14968,7 +14980,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="105" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Análisis/Cronograma.xlsx
+++ b/Análisis/Cronograma.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA184E-12E9-4734-B5B7-D762ED789248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD7E2C-0959-48BA-A76F-3BA21F618513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="M+mdekpS6/LWQvyUJW/Y6T5Fv7lAKHllVVCyMkr19Xhi+qmt+An6e5F3KivkotAa+e0Wowl1gQFB8h7NpOdYAg==" workbookSaltValue="v/fJRpdhihpj20at8ILzoA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1470,6 +1471,12 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1487,12 +1494,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="172" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6292,7 +6293,7 @@
   <dimension ref="A1:EY41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -6393,247 +6394,247 @@
         <v>2</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="119">
+      <c r="D3" s="119"/>
+      <c r="E3" s="121">
         <v>43892</v>
       </c>
-      <c r="F3" s="119"/>
+      <c r="F3" s="121"/>
     </row>
     <row r="4" spans="1:155" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="117"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="113">
+      <c r="I4" s="115">
         <f>I5</f>
         <v>43892</v>
       </c>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="113">
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="115">
         <f>P5</f>
         <v>43899</v>
       </c>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="113">
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="115">
         <f>W5</f>
         <v>43906</v>
       </c>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="113">
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="115">
         <f>AD5</f>
         <v>43913</v>
       </c>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="113">
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="115">
         <f>AK5</f>
         <v>43920</v>
       </c>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="113">
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="115">
         <f>AR5</f>
         <v>43927</v>
       </c>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="113">
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="115">
         <f>AY5</f>
         <v>43934</v>
       </c>
-      <c r="AZ4" s="114"/>
-      <c r="BA4" s="114"/>
-      <c r="BB4" s="114"/>
-      <c r="BC4" s="114"/>
-      <c r="BD4" s="114"/>
-      <c r="BE4" s="115"/>
-      <c r="BF4" s="113">
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="115">
         <f>BF5</f>
         <v>43941</v>
       </c>
-      <c r="BG4" s="114"/>
-      <c r="BH4" s="114"/>
-      <c r="BI4" s="114"/>
-      <c r="BJ4" s="114"/>
-      <c r="BK4" s="114"/>
-      <c r="BL4" s="115"/>
-      <c r="BM4" s="113">
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="116"/>
+      <c r="BK4" s="116"/>
+      <c r="BL4" s="117"/>
+      <c r="BM4" s="115">
         <f>BM5</f>
         <v>43948</v>
       </c>
-      <c r="BN4" s="114"/>
-      <c r="BO4" s="114"/>
-      <c r="BP4" s="114"/>
-      <c r="BQ4" s="114"/>
-      <c r="BR4" s="114"/>
-      <c r="BS4" s="115"/>
-      <c r="BT4" s="113">
+      <c r="BN4" s="116"/>
+      <c r="BO4" s="116"/>
+      <c r="BP4" s="116"/>
+      <c r="BQ4" s="116"/>
+      <c r="BR4" s="116"/>
+      <c r="BS4" s="117"/>
+      <c r="BT4" s="115">
         <f>BT5</f>
         <v>43955</v>
       </c>
-      <c r="BU4" s="114"/>
-      <c r="BV4" s="114"/>
-      <c r="BW4" s="114"/>
-      <c r="BX4" s="114"/>
-      <c r="BY4" s="114"/>
-      <c r="BZ4" s="115"/>
-      <c r="CA4" s="113">
+      <c r="BU4" s="116"/>
+      <c r="BV4" s="116"/>
+      <c r="BW4" s="116"/>
+      <c r="BX4" s="116"/>
+      <c r="BY4" s="116"/>
+      <c r="BZ4" s="117"/>
+      <c r="CA4" s="115">
         <f>CA5</f>
         <v>43962</v>
       </c>
-      <c r="CB4" s="114"/>
-      <c r="CC4" s="114"/>
-      <c r="CD4" s="114"/>
-      <c r="CE4" s="114"/>
-      <c r="CF4" s="114"/>
-      <c r="CG4" s="115"/>
-      <c r="CH4" s="113">
+      <c r="CB4" s="116"/>
+      <c r="CC4" s="116"/>
+      <c r="CD4" s="116"/>
+      <c r="CE4" s="116"/>
+      <c r="CF4" s="116"/>
+      <c r="CG4" s="117"/>
+      <c r="CH4" s="115">
         <f>CH5</f>
         <v>43969</v>
       </c>
-      <c r="CI4" s="114"/>
-      <c r="CJ4" s="114"/>
-      <c r="CK4" s="114"/>
-      <c r="CL4" s="114"/>
-      <c r="CM4" s="114"/>
-      <c r="CN4" s="115"/>
-      <c r="CO4" s="113">
+      <c r="CI4" s="116"/>
+      <c r="CJ4" s="116"/>
+      <c r="CK4" s="116"/>
+      <c r="CL4" s="116"/>
+      <c r="CM4" s="116"/>
+      <c r="CN4" s="117"/>
+      <c r="CO4" s="115">
         <f>CO5</f>
         <v>43976</v>
       </c>
-      <c r="CP4" s="114"/>
-      <c r="CQ4" s="114"/>
-      <c r="CR4" s="114"/>
-      <c r="CS4" s="114"/>
-      <c r="CT4" s="114"/>
-      <c r="CU4" s="115"/>
-      <c r="CV4" s="113">
+      <c r="CP4" s="116"/>
+      <c r="CQ4" s="116"/>
+      <c r="CR4" s="116"/>
+      <c r="CS4" s="116"/>
+      <c r="CT4" s="116"/>
+      <c r="CU4" s="117"/>
+      <c r="CV4" s="115">
         <f>CV5</f>
         <v>43983</v>
       </c>
-      <c r="CW4" s="114"/>
-      <c r="CX4" s="114"/>
-      <c r="CY4" s="114"/>
-      <c r="CZ4" s="114"/>
-      <c r="DA4" s="114"/>
-      <c r="DB4" s="115"/>
-      <c r="DC4" s="113">
+      <c r="CW4" s="116"/>
+      <c r="CX4" s="116"/>
+      <c r="CY4" s="116"/>
+      <c r="CZ4" s="116"/>
+      <c r="DA4" s="116"/>
+      <c r="DB4" s="117"/>
+      <c r="DC4" s="115">
         <f>DC5</f>
         <v>43990</v>
       </c>
-      <c r="DD4" s="114"/>
-      <c r="DE4" s="114"/>
-      <c r="DF4" s="114"/>
-      <c r="DG4" s="114"/>
-      <c r="DH4" s="114"/>
-      <c r="DI4" s="115"/>
-      <c r="DJ4" s="113">
+      <c r="DD4" s="116"/>
+      <c r="DE4" s="116"/>
+      <c r="DF4" s="116"/>
+      <c r="DG4" s="116"/>
+      <c r="DH4" s="116"/>
+      <c r="DI4" s="117"/>
+      <c r="DJ4" s="115">
         <f>DJ5</f>
         <v>43997</v>
       </c>
-      <c r="DK4" s="114"/>
-      <c r="DL4" s="114"/>
-      <c r="DM4" s="114"/>
-      <c r="DN4" s="114"/>
-      <c r="DO4" s="114"/>
-      <c r="DP4" s="115"/>
-      <c r="DQ4" s="113">
+      <c r="DK4" s="116"/>
+      <c r="DL4" s="116"/>
+      <c r="DM4" s="116"/>
+      <c r="DN4" s="116"/>
+      <c r="DO4" s="116"/>
+      <c r="DP4" s="117"/>
+      <c r="DQ4" s="115">
         <f>DQ5</f>
         <v>44004</v>
       </c>
-      <c r="DR4" s="114"/>
-      <c r="DS4" s="114"/>
-      <c r="DT4" s="114"/>
-      <c r="DU4" s="114"/>
-      <c r="DV4" s="114"/>
-      <c r="DW4" s="115"/>
-      <c r="DX4" s="113">
+      <c r="DR4" s="116"/>
+      <c r="DS4" s="116"/>
+      <c r="DT4" s="116"/>
+      <c r="DU4" s="116"/>
+      <c r="DV4" s="116"/>
+      <c r="DW4" s="117"/>
+      <c r="DX4" s="115">
         <f>DX5</f>
         <v>44011</v>
       </c>
-      <c r="DY4" s="114"/>
-      <c r="DZ4" s="114"/>
-      <c r="EA4" s="114"/>
-      <c r="EB4" s="114"/>
-      <c r="EC4" s="114"/>
-      <c r="ED4" s="115"/>
-      <c r="EE4" s="113">
+      <c r="DY4" s="116"/>
+      <c r="DZ4" s="116"/>
+      <c r="EA4" s="116"/>
+      <c r="EB4" s="116"/>
+      <c r="EC4" s="116"/>
+      <c r="ED4" s="117"/>
+      <c r="EE4" s="115">
         <f>EE5</f>
         <v>44018</v>
       </c>
-      <c r="EF4" s="114"/>
-      <c r="EG4" s="114"/>
-      <c r="EH4" s="114"/>
-      <c r="EI4" s="114"/>
-      <c r="EJ4" s="114"/>
-      <c r="EK4" s="115"/>
-      <c r="EL4" s="113">
+      <c r="EF4" s="116"/>
+      <c r="EG4" s="116"/>
+      <c r="EH4" s="116"/>
+      <c r="EI4" s="116"/>
+      <c r="EJ4" s="116"/>
+      <c r="EK4" s="117"/>
+      <c r="EL4" s="115">
         <f>EL5</f>
         <v>44025</v>
       </c>
-      <c r="EM4" s="114"/>
-      <c r="EN4" s="114"/>
-      <c r="EO4" s="114"/>
-      <c r="EP4" s="114"/>
-      <c r="EQ4" s="114"/>
-      <c r="ER4" s="115"/>
-      <c r="ES4" s="113">
+      <c r="EM4" s="116"/>
+      <c r="EN4" s="116"/>
+      <c r="EO4" s="116"/>
+      <c r="EP4" s="116"/>
+      <c r="EQ4" s="116"/>
+      <c r="ER4" s="117"/>
+      <c r="ES4" s="115">
         <f>ES5</f>
         <v>44032</v>
       </c>
-      <c r="ET4" s="114"/>
-      <c r="EU4" s="114"/>
-      <c r="EV4" s="114"/>
-      <c r="EW4" s="114"/>
-      <c r="EX4" s="114"/>
-      <c r="EY4" s="115"/>
+      <c r="ET4" s="116"/>
+      <c r="EU4" s="116"/>
+      <c r="EV4" s="116"/>
+      <c r="EW4" s="116"/>
+      <c r="EX4" s="116"/>
+      <c r="EY4" s="117"/>
     </row>
     <row r="5" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
       <c r="I5" s="43">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43892</v>
@@ -11175,7 +11176,7 @@
       <c r="B27" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="113" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="72"/>
@@ -11343,7 +11344,7 @@
       <c r="B28" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="113" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="72"/>
@@ -11511,7 +11512,7 @@
       <c r="B29" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="120" t="s">
+      <c r="C29" s="113" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="72"/>
@@ -11679,7 +11680,7 @@
       <c r="B30" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="113" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="72"/>
@@ -11847,7 +11848,7 @@
       <c r="B31" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="113" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="72"/>
@@ -12181,7 +12182,7 @@
       <c r="B33" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="121" t="s">
+      <c r="C33" s="114" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="80"/>
@@ -13112,11 +13113,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
@@ -13127,16 +13133,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D26">
     <cfRule type="dataBar" priority="460">
